--- a/results/data/oil-prices-master/data/brent-year.xlsx
+++ b/results/data/oil-prices-master/data/brent-year.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1987-06-30</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1988-06-30</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1989-06-30</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1990-06-30</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1991-06-30</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1992-06-30</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1993-06-30</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1994-06-30</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1995-06-30</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1996-06-30</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1997-06-30</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1998-06-30</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1999-06-30</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2000-06-30</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2001-06-30</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2002-06-30</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2003-06-30</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2004-06-30</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2005-06-30</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2006-06-30</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2007-06-30</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2008-06-30</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2009-06-30</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2010-06-30</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2011-06-30</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2012-06-30</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2013-06-30</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2014-06-30</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2015-06-30</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2016-06-30</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2017-06-30</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B37" t="n">
